--- a/ig/branch/dev/StructureDefinition-Disease.xlsx
+++ b/ig/branch/dev/StructureDefinition-Disease.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="347">
   <si>
     <t>Property</t>
   </si>
@@ -272,6 +272,10 @@
   </si>
   <si>
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
+  </si>
+  <si>
+    <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
+con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1221,10 +1225,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1683,19 +1687,19 @@
         <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>80</v>
@@ -1706,10 +1710,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1720,7 +1724,7 @@
         <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>80</v>
@@ -1729,19 +1733,19 @@
         <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1791,13 +1795,13 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>80</v>
@@ -1826,10 +1830,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1840,7 +1844,7 @@
         <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
@@ -1849,16 +1853,16 @@
         <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1909,19 +1913,19 @@
         <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -1944,10 +1948,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1958,28 +1962,28 @@
         <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2029,19 +2033,19 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>80</v>
@@ -2064,10 +2068,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2078,7 +2082,7 @@
         <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>80</v>
@@ -2090,16 +2094,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2125,13 +2129,13 @@
         <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>80</v>
@@ -2149,19 +2153,19 @@
         <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2184,21 +2188,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>80</v>
@@ -2210,16 +2214,16 @@
         <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2269,19 +2273,19 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
@@ -2293,7 +2297,7 @@
         <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>80</v>
@@ -2304,14 +2308,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2330,16 +2334,16 @@
         <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2389,7 +2393,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -2413,7 +2417,7 @@
         <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>80</v>
@@ -2424,14 +2428,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2450,16 +2454,16 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2509,7 +2513,7 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -2521,7 +2525,7 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
@@ -2533,7 +2537,7 @@
         <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>80</v>
@@ -2544,14 +2548,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2564,25 +2568,25 @@
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>80</v>
@@ -2631,7 +2635,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -2643,7 +2647,7 @@
         <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
@@ -2655,7 +2659,7 @@
         <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>80</v>
@@ -2666,10 +2670,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2689,22 +2693,22 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>80</v>
@@ -2753,7 +2757,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -2765,10 +2769,10 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>80</v>
@@ -2777,10 +2781,10 @@
         <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>80</v>
@@ -2788,10 +2792,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2802,28 +2806,28 @@
         <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2849,13 +2853,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -2873,34 +2877,34 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>80</v>
@@ -2908,10 +2912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2922,28 +2926,28 @@
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2969,13 +2973,13 @@
         <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>80</v>
@@ -2993,45 +2997,45 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="AP13" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3054,16 +3058,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3089,13 +3093,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3113,7 +3117,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3125,22 +3129,22 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>80</v>
@@ -3148,10 +3152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3162,7 +3166,7 @@
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3174,16 +3178,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3209,13 +3213,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -3233,56 +3237,56 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3291,20 +3295,20 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3329,13 +3333,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -3353,45 +3357,45 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3411,19 +3415,19 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3449,13 +3453,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3473,7 +3477,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3485,44 +3489,44 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -3531,20 +3535,20 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3593,34 +3597,34 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>80</v>
@@ -3628,10 +3632,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3642,7 +3646,7 @@
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -3651,19 +3655,19 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3713,34 +3717,34 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>80</v>
@@ -3748,10 +3752,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3762,7 +3766,7 @@
         <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -3771,19 +3775,19 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3833,34 +3837,34 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>80</v>
@@ -3868,10 +3872,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3882,7 +3886,7 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -3894,16 +3898,16 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3953,19 +3957,19 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -3977,10 +3981,10 @@
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>80</v>
@@ -3988,10 +3992,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4002,7 +4006,7 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4011,16 +4015,16 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4071,19 +4075,19 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
@@ -4092,13 +4096,13 @@
         <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>80</v>
@@ -4106,10 +4110,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4120,7 +4124,7 @@
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4129,16 +4133,16 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4189,19 +4193,19 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
@@ -4213,10 +4217,10 @@
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>80</v>
@@ -4224,10 +4228,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4238,7 +4242,7 @@
         <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4247,16 +4251,16 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4307,19 +4311,19 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -4328,13 +4332,13 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -4342,10 +4346,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4368,13 +4372,13 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4425,7 +4429,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4437,7 +4441,7 @@
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -4449,7 +4453,7 @@
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -4460,10 +4464,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4474,7 +4478,7 @@
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4486,13 +4490,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4543,13 +4547,13 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
@@ -4567,7 +4571,7 @@
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -4578,14 +4582,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4604,16 +4608,16 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4663,7 +4667,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -4675,7 +4679,7 @@
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -4687,7 +4691,7 @@
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -4698,14 +4702,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4718,25 +4722,25 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -4785,7 +4789,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -4797,7 +4801,7 @@
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -4809,7 +4813,7 @@
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -4820,10 +4824,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4834,7 +4838,7 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -4846,13 +4850,13 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4879,13 +4883,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -4903,31 +4907,31 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -4938,10 +4942,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4964,13 +4968,13 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5021,7 +5025,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5030,10 +5034,10 @@
         <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5045,7 +5049,7 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5056,10 +5060,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5070,7 +5074,7 @@
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5082,13 +5086,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5115,13 +5119,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5139,19 +5143,19 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
@@ -5163,7 +5167,7 @@
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -5174,10 +5178,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5200,16 +5204,16 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5259,7 +5263,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5271,7 +5275,7 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5283,7 +5287,7 @@
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5294,10 +5298,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5308,7 +5312,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5320,13 +5324,13 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5377,13 +5381,13 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
@@ -5401,7 +5405,7 @@
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5412,14 +5416,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5438,16 +5442,16 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5497,7 +5501,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5509,7 +5513,7 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5521,7 +5525,7 @@
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -5532,14 +5536,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5552,25 +5556,25 @@
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5619,7 +5623,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -5631,7 +5635,7 @@
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -5643,7 +5647,7 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -5654,10 +5658,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5677,16 +5681,16 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5713,13 +5717,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -5737,7 +5741,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -5746,25 +5750,25 @@
         <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>80</v>
@@ -5772,10 +5776,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5795,16 +5799,16 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5855,7 +5859,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -5864,10 +5868,10 @@
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -5879,10 +5883,10 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>80</v>
@@ -5890,10 +5894,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5916,13 +5920,13 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5973,7 +5977,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -5985,19 +5989,19 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
